--- a/src/main/java/com/RDK/qa/testdata/RDK_RegistrationPageData.xlsx
+++ b/src/main/java/com/RDK/qa/testdata/RDK_RegistrationPageData.xlsx
@@ -103,12 +103,6 @@
     <t>AboutYou</t>
   </si>
   <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>DOB_yyyy</t>
   </si>
   <si>
@@ -326,6 +320,12 @@
   </si>
   <si>
     <t>test1@1004.com</t>
+  </si>
+  <si>
+    <t>Daughter</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,10 +711,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -782,85 +782,85 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>49</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -892,10 +892,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4"/>
     </row>
@@ -904,188 +904,188 @@
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
